--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/4.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/4.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2371252571675705</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.601959420582736</v>
+        <v>-1.602031038452755</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1495862343234104</v>
+        <v>0.1498522435549103</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2447590722125361</v>
+        <v>-0.2447134256580183</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2416156533902119</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.534920372187419</v>
+        <v>-1.535561784979349</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09856912656381255</v>
+        <v>0.09921290038442453</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2482093221264272</v>
+        <v>-0.2480629383481462</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2493880681548745</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.490985563464113</v>
+        <v>-1.492384866462949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09446251067633905</v>
+        <v>0.09514563497498355</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2578800956076986</v>
+        <v>-0.2579729627358553</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2524464839649222</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.560594985084515</v>
+        <v>-1.561708603612835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1210366755012586</v>
+        <v>0.1225744921827693</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2353306976759449</v>
+        <v>-0.2354393049953147</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2503275551199068</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.594634722601763</v>
+        <v>-1.595205304533235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1063211707362184</v>
+        <v>0.1083532294218176</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2608990642823533</v>
+        <v>-0.2611414632270336</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2469260339936772</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.481274652495248</v>
+        <v>-1.481625658759298</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1193634931753159</v>
+        <v>0.122206171708385</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2527173128898323</v>
+        <v>-0.2530273946567286</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2465064278695354</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.266292759879319</v>
+        <v>-1.265603339504189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1564284954437045</v>
+        <v>0.1598220806692288</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2583648934970592</v>
+        <v>-0.258986631049973</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.248662256314755</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.007622392532567</v>
+        <v>-1.006579604864705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.178165699508867</v>
+        <v>0.1822912036257961</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2553018522870081</v>
+        <v>-0.2561518226125105</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2504087089233099</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5945360273288536</v>
+        <v>-0.5929824704561298</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1673096896292562</v>
+        <v>0.1716020397730432</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1640134653089321</v>
+        <v>-0.1650365777377776</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2472243054384276</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2204357547310765</v>
+        <v>-0.2186004484356399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1373199033111142</v>
+        <v>0.1413556883381291</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1280487024063327</v>
+        <v>-0.1289159869421694</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2326968433679242</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2412193314890513</v>
+        <v>0.2432010215627688</v>
       </c>
       <c r="F12" t="n">
-        <v>0.101570781028133</v>
+        <v>0.1052461156763701</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03831387230098047</v>
+        <v>-0.03879237411385587</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1996297635362379</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7660807295441295</v>
+        <v>0.7692885805133404</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007719662640258997</v>
+        <v>-0.00511623501362766</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0554284104872033</v>
+        <v>0.05515295714097568</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1430203099376905</v>
       </c>
       <c r="E14" t="n">
-        <v>1.311284750722898</v>
+        <v>1.314955363313771</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2317198978116812</v>
+        <v>-0.2287922222460619</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1591515485235547</v>
+        <v>0.1593608930666877</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.06276364537217485</v>
       </c>
       <c r="E15" t="n">
-        <v>1.872921531528045</v>
+        <v>1.876595292157161</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.443683608762517</v>
+        <v>-0.4404962200418831</v>
       </c>
       <c r="G15" t="n">
-        <v>0.292696052832069</v>
+        <v>0.2929793762739031</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.03724694105514031</v>
       </c>
       <c r="E16" t="n">
-        <v>2.345511328583849</v>
+        <v>2.349271660264637</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6686849200950864</v>
+        <v>-0.665703727879343</v>
       </c>
       <c r="G16" t="n">
-        <v>0.436682599991292</v>
+        <v>0.4371862861101082</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1474785456684872</v>
       </c>
       <c r="E17" t="n">
-        <v>2.801383468552318</v>
+        <v>2.805151670328712</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8824485219111295</v>
+        <v>-0.8800945763152244</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5554895632670679</v>
+        <v>0.55660554282407</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2573421391427831</v>
       </c>
       <c r="E18" t="n">
-        <v>3.225328204664324</v>
+        <v>3.228027647457355</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.210246661027165</v>
+        <v>-1.208215389351126</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6770274497183005</v>
+        <v>0.6781780576959713</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3635129907490497</v>
       </c>
       <c r="E19" t="n">
-        <v>3.599839296252761</v>
+        <v>3.602208195030318</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.509031692689826</v>
+        <v>-1.508060522891983</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8379016480299586</v>
+        <v>0.8391136427533601</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4668568994305092</v>
       </c>
       <c r="E20" t="n">
-        <v>3.726352657146425</v>
+        <v>3.728614522623734</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.844327671890177</v>
+        <v>-1.843791718379374</v>
       </c>
       <c r="G20" t="n">
-        <v>1.013659771152636</v>
+        <v>1.015244808407786</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5686148525965568</v>
       </c>
       <c r="E21" t="n">
-        <v>3.976916039008918</v>
+        <v>3.978548296837706</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.080399846712414</v>
+        <v>-2.080798073550103</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181099203219239</v>
+        <v>1.18291562128522</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6673606559139612</v>
       </c>
       <c r="E22" t="n">
-        <v>4.181363808655543</v>
+        <v>4.18375631771992</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.375763747814928</v>
+        <v>-2.375623660113132</v>
       </c>
       <c r="G22" t="n">
-        <v>1.32117431286203</v>
+        <v>1.323285072503694</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7612067143214903</v>
       </c>
       <c r="E23" t="n">
-        <v>4.406215588171588</v>
+        <v>4.408398752692833</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.508188337518637</v>
+        <v>-2.507971122879897</v>
       </c>
       <c r="G23" t="n">
-        <v>1.491624843507682</v>
+        <v>1.494069295203061</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.847914655142325</v>
       </c>
       <c r="E24" t="n">
-        <v>4.534224267230488</v>
+        <v>4.536015500990528</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.623486812173033</v>
+        <v>-2.622697441583701</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59528344676006</v>
+        <v>1.597995481706061</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9250606645597378</v>
       </c>
       <c r="E25" t="n">
-        <v>4.675047035955896</v>
+        <v>4.676339305654484</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.818992579191549</v>
+        <v>-2.817858498414652</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658463000269948</v>
+        <v>1.66117660923507</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9907114266779596</v>
       </c>
       <c r="E26" t="n">
-        <v>4.78775152709839</v>
+        <v>4.788927319382001</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.908791157071314</v>
+        <v>-2.907738925288724</v>
       </c>
       <c r="G26" t="n">
-        <v>1.701518719314007</v>
+        <v>1.704038723927209</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.04276915954915</v>
       </c>
       <c r="E27" t="n">
-        <v>4.896895586988501</v>
+        <v>4.897745557314003</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.981218072918844</v>
+        <v>-2.979816408891326</v>
       </c>
       <c r="G27" t="n">
-        <v>1.751594563639067</v>
+        <v>1.754136604519968</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.079631610823132</v>
       </c>
       <c r="E28" t="n">
-        <v>4.8955875770987</v>
+        <v>4.896881420816409</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069575636293058</v>
+        <v>-3.068408501114614</v>
       </c>
       <c r="G28" t="n">
-        <v>1.791966580081308</v>
+        <v>1.79486120124538</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.10051936172331</v>
       </c>
       <c r="E29" t="n">
-        <v>4.903410452131564</v>
+        <v>4.905072616323658</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.082652587152824</v>
+        <v>-3.081807338884686</v>
       </c>
       <c r="G29" t="n">
-        <v>1.723403881176572</v>
+        <v>1.726422849851226</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.105698579031219</v>
       </c>
       <c r="E30" t="n">
-        <v>4.84478610995872</v>
+        <v>4.846748911802982</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.072206609254312</v>
+        <v>-3.071399924454646</v>
       </c>
       <c r="G30" t="n">
-        <v>1.687384027604727</v>
+        <v>1.690116524799305</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.094656675860366</v>
       </c>
       <c r="E31" t="n">
-        <v>4.719143181639136</v>
+        <v>4.721005246259634</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.059900927763983</v>
+        <v>-3.059398815664288</v>
       </c>
       <c r="G31" t="n">
-        <v>1.628589691366782</v>
+        <v>1.631333206695209</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.067699548672922</v>
       </c>
       <c r="E32" t="n">
-        <v>4.637723894551614</v>
+        <v>4.63990863309198</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.020653547983911</v>
+        <v>-3.0204457774599</v>
       </c>
       <c r="G32" t="n">
-        <v>1.59114535049016</v>
+        <v>1.593544155631022</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.026416892121347</v>
       </c>
       <c r="E33" t="n">
-        <v>4.558882850784785</v>
+        <v>4.560513534594452</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.951510823032975</v>
+        <v>-2.951227499591141</v>
       </c>
       <c r="G33" t="n">
-        <v>1.561517588569917</v>
+        <v>1.563667698689614</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9732665878782655</v>
       </c>
       <c r="E34" t="n">
-        <v>4.356032710546279</v>
+        <v>4.358433089706264</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.879057148860384</v>
+        <v>-2.87870220754853</v>
       </c>
       <c r="G34" t="n">
-        <v>1.511136384535325</v>
+        <v>1.512976412888125</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9107592051399583</v>
       </c>
       <c r="E35" t="n">
-        <v>4.131339906961485</v>
+        <v>4.133357799474993</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.846958176919698</v>
+        <v>-2.846611105703452</v>
       </c>
       <c r="G35" t="n">
-        <v>1.390497263002355</v>
+        <v>1.392126372792901</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8413381713635271</v>
       </c>
       <c r="E36" t="n">
-        <v>3.97960603768722</v>
+        <v>3.981605041971272</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.821447262011218</v>
+        <v>-2.821134032206079</v>
       </c>
       <c r="G36" t="n">
-        <v>1.363753104112335</v>
+        <v>1.365290920793846</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7674454450300163</v>
       </c>
       <c r="E37" t="n">
-        <v>3.783450200771607</v>
+        <v>3.785230416397798</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.757790780707575</v>
+        <v>-2.757344546286686</v>
       </c>
       <c r="G37" t="n">
-        <v>1.276949097610845</v>
+        <v>1.278436545680474</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.690132231790777</v>
       </c>
       <c r="E38" t="n">
-        <v>3.712849147104786</v>
+        <v>3.714301966753747</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.726231697325496</v>
+        <v>-2.725661115394025</v>
       </c>
       <c r="G38" t="n">
-        <v>1.233532928188008</v>
+        <v>1.234809457695383</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6102693945115238</v>
       </c>
       <c r="E39" t="n">
-        <v>3.502365014127973</v>
+        <v>3.503654135788318</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.743064257808686</v>
+        <v>-2.742717973602</v>
       </c>
       <c r="G39" t="n">
-        <v>1.158165744621888</v>
+        <v>1.159607546137</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5290208047499861</v>
       </c>
       <c r="E40" t="n">
-        <v>3.256188423556545</v>
+        <v>3.257724666218935</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.707751925831866</v>
+        <v>-2.707601607005782</v>
       </c>
       <c r="G40" t="n">
-        <v>1.094022891409764</v>
+        <v>1.095469414982239</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4474494013147026</v>
       </c>
       <c r="E41" t="n">
-        <v>3.084058414508466</v>
+        <v>3.085388460665965</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.646763406938828</v>
+        <v>-2.647028629160767</v>
       </c>
       <c r="G41" t="n">
-        <v>1.062008916501629</v>
+        <v>1.063368869022433</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3660020321417831</v>
       </c>
       <c r="E42" t="n">
-        <v>2.969158166691758</v>
+        <v>2.970286738401731</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.615965361801898</v>
+        <v>-2.615969296849701</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9780066640360542</v>
+        <v>0.9793980969392839</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2855598733071578</v>
       </c>
       <c r="E43" t="n">
-        <v>2.835421632050446</v>
+        <v>2.83620077151549</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.598862857039405</v>
+        <v>-2.598799109264993</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9259239453313357</v>
+        <v>0.9273374145022637</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.20616138728449</v>
       </c>
       <c r="E44" t="n">
-        <v>2.705733474589118</v>
+        <v>2.706747142903235</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.527385861731581</v>
+        <v>-2.527351233310912</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8619872886241018</v>
+        <v>0.8630387333971306</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1276024737678046</v>
       </c>
       <c r="E45" t="n">
-        <v>2.509347830881795</v>
+        <v>2.510120674270354</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.4620380968821</v>
+        <v>-2.462093187551346</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8317503813039155</v>
+        <v>0.8328821010521307</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.05020609140230647</v>
       </c>
       <c r="E46" t="n">
-        <v>2.383012334148838</v>
+        <v>2.383734808925515</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.422557762272076</v>
+        <v>-2.422072177373155</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7685361993733586</v>
+        <v>0.7696002362993578</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.02500376170545066</v>
       </c>
       <c r="E47" t="n">
-        <v>2.219780255193471</v>
+        <v>2.220691612264705</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.287878390177104</v>
+        <v>-2.287699739006836</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7122980701884063</v>
+        <v>0.7132534997950358</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.09713954170583589</v>
       </c>
       <c r="E48" t="n">
-        <v>2.131466764354654</v>
+        <v>2.132080631811961</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.246971994243181</v>
+        <v>-2.246236140303973</v>
       </c>
       <c r="G48" t="n">
-        <v>0.663555420059088</v>
+        <v>0.6644714991876849</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.165498619796251</v>
       </c>
       <c r="E49" t="n">
-        <v>1.978009344142565</v>
+        <v>1.978585435140961</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.195041168383668</v>
+        <v>-2.194284065186322</v>
       </c>
       <c r="G49" t="n">
-        <v>0.589301068011728</v>
+        <v>0.5899511379088251</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2291564720324976</v>
       </c>
       <c r="E50" t="n">
-        <v>1.884300115755928</v>
+        <v>1.885253971343436</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.147604167115468</v>
+        <v>-2.146846276908562</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5327024884479978</v>
+        <v>0.5333745946127932</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.287354505598145</v>
       </c>
       <c r="E51" t="n">
-        <v>1.760234354595887</v>
+        <v>1.761386536592679</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.097466936044678</v>
+        <v>-2.096694092656119</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4879657169823897</v>
+        <v>0.4883655178392001</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3396961597157874</v>
       </c>
       <c r="E52" t="n">
-        <v>1.648146878948943</v>
+        <v>1.649868855867646</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.980136402704682</v>
+        <v>-1.979535914409906</v>
       </c>
       <c r="G52" t="n">
-        <v>0.452240204986228</v>
+        <v>0.4527486131624081</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3855800305433962</v>
       </c>
       <c r="E53" t="n">
-        <v>1.604590621824311</v>
+        <v>1.60589705769499</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.920470059873537</v>
+        <v>-1.919981326936373</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3812456465390818</v>
+        <v>0.3819161786847559</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4248375233768563</v>
       </c>
       <c r="E54" t="n">
-        <v>1.560607805517805</v>
+        <v>1.56172693311305</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.909820246498816</v>
+        <v>-1.909310264303515</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3470626732817947</v>
+        <v>0.3475758035153387</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4585811619771286</v>
       </c>
       <c r="E55" t="n">
-        <v>1.505000858000495</v>
+        <v>1.506252203201929</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.845229584846682</v>
+        <v>-1.844576366911342</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3201453722884317</v>
+        <v>0.3204885084568752</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4884638446939305</v>
       </c>
       <c r="E56" t="n">
-        <v>1.447339815529887</v>
+        <v>1.44787655605025</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.783869597441017</v>
+        <v>-1.783210870438753</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2133387307934522</v>
+        <v>0.2139226918874547</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.516156860593215</v>
       </c>
       <c r="E57" t="n">
-        <v>1.45582692663194</v>
+        <v>1.45697596059049</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.781297650196812</v>
+        <v>-1.780907293454729</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2137495497841117</v>
+        <v>0.2144704505416674</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5429751817064388</v>
       </c>
       <c r="E58" t="n">
-        <v>1.440163862355877</v>
+        <v>1.441375857079279</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.766693900789384</v>
+        <v>-1.766136698020444</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2090920272041829</v>
+        <v>0.2098758887265907</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5702941506529579</v>
       </c>
       <c r="E59" t="n">
-        <v>1.428105301867592</v>
+        <v>1.429109526066982</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.73042141714857</v>
+        <v>-1.730197119423785</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1353728416580652</v>
+        <v>0.1363644737044847</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5982932087642865</v>
       </c>
       <c r="E60" t="n">
-        <v>1.460426210504381</v>
+        <v>1.46081341920822</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.762547934423878</v>
+        <v>-1.76224729677171</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1150491067638307</v>
+        <v>0.1160580530205845</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6265868635708025</v>
       </c>
       <c r="E61" t="n">
-        <v>1.457452888384244</v>
+        <v>1.457854263260175</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.780934051779791</v>
+        <v>-1.780570453362771</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1271596098831183</v>
+        <v>0.1280772630308366</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6549781650828363</v>
       </c>
       <c r="E62" t="n">
-        <v>1.467285785835009</v>
+        <v>1.467756417552278</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.824399015795389</v>
+        <v>-1.824165273955876</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03994793242921103</v>
+        <v>0.04112529873194395</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6831630372050242</v>
       </c>
       <c r="E63" t="n">
-        <v>1.453130631877152</v>
+        <v>1.453728759143246</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.785427089361544</v>
+        <v>-1.785702542707772</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00591606500756886</v>
+        <v>0.00696750978059772</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7107463928913016</v>
       </c>
       <c r="E64" t="n">
-        <v>1.454119115885329</v>
+        <v>1.454770759801547</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.81294015659232</v>
+        <v>-1.813167602355348</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02415714432400208</v>
+        <v>-0.02329772988377191</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7368416339825448</v>
       </c>
       <c r="E65" t="n">
-        <v>1.463256296884479</v>
+        <v>1.464030714292159</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.838395193821994</v>
+        <v>-1.838635231737993</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02755702562601156</v>
+        <v>-0.02650715487210401</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7607727848134692</v>
       </c>
       <c r="E66" t="n">
-        <v>1.426842938532309</v>
+        <v>1.427899105362702</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.843776765197721</v>
+        <v>-1.844237165790702</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03605672888103528</v>
+        <v>-0.03481640181345034</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7810717670950226</v>
       </c>
       <c r="E67" t="n">
-        <v>1.391973692938135</v>
+        <v>1.392957454888948</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.855732227433561</v>
+        <v>-1.856342946852625</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05503152938831507</v>
+        <v>-0.05387934739152297</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7961931149086539</v>
       </c>
       <c r="E68" t="n">
-        <v>1.341841183924708</v>
+        <v>1.342724208651758</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.885834556118876</v>
+        <v>-1.886531059580051</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06203434045898183</v>
+        <v>-0.06123631276448238</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8047119721664832</v>
       </c>
       <c r="E69" t="n">
-        <v>1.23869098884851</v>
+        <v>1.239654288550746</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.907338805354086</v>
+        <v>-1.908048687977792</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08445781686103143</v>
+        <v>-0.0834583147190055</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8061569535047549</v>
       </c>
       <c r="E70" t="n">
-        <v>1.255000974983428</v>
+        <v>1.25541494201233</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.91246223759392</v>
+        <v>-1.913862327602317</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05357713572023324</v>
+        <v>-0.05256818946347949</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8002298406341164</v>
       </c>
       <c r="E71" t="n">
-        <v>1.247965109511214</v>
+        <v>1.248177602092589</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.947301576824789</v>
+        <v>-1.948600929609423</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07309969488172567</v>
+        <v>-0.07244647694638588</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7869101554103975</v>
       </c>
       <c r="E72" t="n">
-        <v>1.231906966435704</v>
+        <v>1.23158744055408</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.976584628557467</v>
+        <v>-1.978209016290649</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1079642184185359</v>
+        <v>-0.1072134112976755</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7663281308463056</v>
       </c>
       <c r="E73" t="n">
-        <v>1.236973733987171</v>
+        <v>1.236164688158823</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.976357182794439</v>
+        <v>-1.97808939083743</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0953720654481304</v>
+        <v>-0.09466847890090899</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7388121483715936</v>
       </c>
       <c r="E74" t="n">
-        <v>1.232213900164358</v>
+        <v>1.23035340956298</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.984522406986186</v>
+        <v>-1.986399424788337</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07653420460440377</v>
+        <v>-0.07587311657345748</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7051743912125431</v>
       </c>
       <c r="E75" t="n">
-        <v>1.17736090780615</v>
+        <v>1.175204501609968</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.01722501525989</v>
+        <v>-2.019152401673923</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04860953137340827</v>
+        <v>-0.04810269721634945</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6664401735935698</v>
       </c>
       <c r="E76" t="n">
-        <v>1.213716027450832</v>
+        <v>1.210500306386015</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.020853129334488</v>
+        <v>-2.022869447828874</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02872966987138058</v>
+        <v>-0.02845106848691036</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6235909610886292</v>
       </c>
       <c r="E77" t="n">
-        <v>1.150187041696015</v>
+        <v>1.145771918060767</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.018178083837838</v>
+        <v>-2.020461985582845</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03031470712653037</v>
+        <v>-0.02988342588729398</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5769253861840038</v>
       </c>
       <c r="E78" t="n">
-        <v>1.170905855389696</v>
+        <v>1.165810755494046</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.028831045250801</v>
+        <v>-2.031170824674614</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0248748970433152</v>
+        <v>-0.02476156766658155</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5269977956171601</v>
       </c>
       <c r="E79" t="n">
-        <v>1.15833731270611</v>
+        <v>1.152338725834833</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.005359272113965</v>
+        <v>-2.008086260241618</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04643581096689201</v>
+        <v>-0.04615091350593659</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4742283537880508</v>
       </c>
       <c r="E80" t="n">
-        <v>1.13896271134202</v>
+        <v>1.132509232944687</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.967867710663704</v>
+        <v>-1.969960369085473</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02990703617411349</v>
+        <v>-0.02988972196377919</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4185122864677197</v>
       </c>
       <c r="E81" t="n">
-        <v>1.164568854407339</v>
+        <v>1.158006768690637</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.921353871610147</v>
+        <v>-1.923433937878946</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.009817830128952815</v>
+        <v>-0.01004763692066271</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.359551647311477</v>
       </c>
       <c r="E82" t="n">
-        <v>1.224178532550118</v>
+        <v>1.216961654878954</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.949156558359242</v>
+        <v>-1.950950940157525</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01793527501782091</v>
+        <v>0.01754491827573834</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2980081319259745</v>
       </c>
       <c r="E83" t="n">
-        <v>1.311654645216404</v>
+        <v>1.304456655774695</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.845109959393463</v>
+        <v>-1.8464132472259</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01064914050532003</v>
+        <v>0.01040359352239712</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2351065394991064</v>
       </c>
       <c r="E84" t="n">
-        <v>1.307266279906217</v>
+        <v>1.300247728644337</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.78442916123864</v>
+        <v>-1.785205152665441</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02125802938288666</v>
+        <v>0.02102979661029807</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1719999909538185</v>
       </c>
       <c r="E85" t="n">
-        <v>1.416479596637665</v>
+        <v>1.410029266278575</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.756283338321101</v>
+        <v>-1.756528885304024</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01542156648110371</v>
+        <v>0.01509102246563057</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1105516338814181</v>
       </c>
       <c r="E86" t="n">
-        <v>1.661020781342062</v>
+        <v>1.65523468705216</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.652272154785552</v>
+        <v>-1.651844021584558</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03159146491422568</v>
+        <v>0.03116647975147449</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.05344925629634684</v>
       </c>
       <c r="E87" t="n">
-        <v>1.596725248275171</v>
+        <v>1.592023653159846</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.532439718052249</v>
+        <v>-1.53161886708049</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05254323343785913</v>
+        <v>0.05209621200740974</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.00394129646671549</v>
       </c>
       <c r="E88" t="n">
-        <v>1.743677247458925</v>
+        <v>1.739814604535253</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.333068947081379</v>
+        <v>-1.332063148862868</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08923047111713557</v>
+        <v>0.08881335604999088</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03468720296193137</v>
       </c>
       <c r="E89" t="n">
-        <v>1.910601975272862</v>
+        <v>1.907768740854521</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158538558873316</v>
+        <v>-1.157350174436734</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1129210329118322</v>
+        <v>0.1125542864565692</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05898383634250261</v>
       </c>
       <c r="E90" t="n">
-        <v>1.932022801494644</v>
+        <v>1.930086757975444</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9188374829669195</v>
+        <v>-0.9173602660215788</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1416878063727236</v>
+        <v>0.1413541143190079</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06622423719387846</v>
       </c>
       <c r="E91" t="n">
-        <v>1.970472940589777</v>
+        <v>1.968908365583204</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6676177351308445</v>
+        <v>-0.6654046642462957</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09516924526180306</v>
+        <v>0.09502915756000729</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.055453703744257</v>
       </c>
       <c r="E92" t="n">
-        <v>1.98555519181008</v>
+        <v>1.984639112681483</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4626190587917643</v>
+        <v>-0.4600896100638341</v>
       </c>
       <c r="G92" t="n">
-        <v>0.106324318774461</v>
+        <v>0.1061480286328754</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02744717237596971</v>
       </c>
       <c r="E93" t="n">
-        <v>1.959039265692649</v>
+        <v>1.958151518908235</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2421493485094195</v>
+        <v>-0.2397898938465898</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09175834582594447</v>
+        <v>0.09142150573398612</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01390349893109821</v>
       </c>
       <c r="E94" t="n">
-        <v>1.846830590573365</v>
+        <v>1.845889327138827</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0592215682892175</v>
+        <v>-0.05675193228789673</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06650320902467494</v>
+        <v>0.06620571941074911</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06189995797324851</v>
       </c>
       <c r="E95" t="n">
-        <v>1.795372757459803</v>
+        <v>1.794949346316173</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07205005240813855</v>
+        <v>0.07470542266577282</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05386855753799431</v>
+        <v>0.05357421596231109</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1085914650796516</v>
       </c>
       <c r="E96" t="n">
-        <v>1.667628513613282</v>
+        <v>1.667183066201954</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1455551713537594</v>
+        <v>0.14790360788274</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005415298646674791</v>
+        <v>-0.005668715725204202</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1474446878637488</v>
       </c>
       <c r="E97" t="n">
-        <v>1.502378542144408</v>
+        <v>1.502510759750597</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1502441743161141</v>
+        <v>0.1525658525200326</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02056995474655781</v>
+        <v>-0.02094142325918478</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.178000489394939</v>
       </c>
       <c r="E98" t="n">
-        <v>1.389077497754942</v>
+        <v>1.389231751628829</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1783026391724202</v>
+        <v>0.1804023806802353</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05857936848772682</v>
+        <v>-0.05924360455691571</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2034265844483349</v>
       </c>
       <c r="E99" t="n">
-        <v>1.249853932456775</v>
+        <v>1.250241141160615</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1815026200460245</v>
+        <v>0.1834906061962273</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0981171547956788</v>
+        <v>-0.09867750560286184</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2309604288016193</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091106233977994</v>
+        <v>1.091583161771748</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2369867940718737</v>
+        <v>0.2386395141492395</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1450890334135339</v>
+        <v>-0.1455549430734389</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2602303595479472</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9101192193343555</v>
+        <v>0.9110038180805264</v>
       </c>
       <c r="F101" t="n">
-        <v>0.219179915752599</v>
+        <v>0.2208940225756955</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1706794362876405</v>
+        <v>-0.1713326542229803</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2948595764533741</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8499428943079089</v>
+        <v>0.8506889793714054</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2572617343733479</v>
+        <v>0.2586452971809712</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2086369073978066</v>
+        <v>-0.2092476268168713</v>
       </c>
     </row>
   </sheetData>
